--- a/3º/SIN/Bloque1/Ejercicios_Bloque_1.xlsx
+++ b/3º/SIN/Bloque1/Ejercicios_Bloque_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bcfd1cdc08a32d2c/UPV/3º/SIN/Bloque1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{6907B3E2-2777-44A3-A7D6-A32F0AA8780D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BEF0D242-3C35-4103-9FCB-9C8DD479DE4C}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{6907B3E2-2777-44A3-A7D6-A32F0AA8780D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3F1AD99-5DC3-4574-99B0-AEF86F3AC314}"/>
   <bookViews>
-    <workbookView xWindow="14070" yWindow="1800" windowWidth="13665" windowHeight="13020" xr2:uid="{ECFBB233-5CDF-42EC-9213-33B47B72104C}"/>
+    <workbookView xWindow="9444" yWindow="1956" windowWidth="13620" windowHeight="8880" xr2:uid="{ECFBB233-5CDF-42EC-9213-33B47B72104C}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
   <si>
     <t>Ejercicio 1</t>
   </si>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t>f-1:{$?x=(), ?sym=a, $?y=(a,b,a),?sym=b, ?num=2}</t>
+  </si>
+  <si>
+    <t>Clips selecciona de derecha a izquierda</t>
   </si>
 </sst>
 </file>
@@ -278,6 +281,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -292,12 +301,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -615,23 +618,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8986728-70A7-49B3-8FF8-FFD1D132CBC5}">
   <dimension ref="B2:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.42578125" style="1"/>
-    <col min="3" max="9" width="11.42578125" style="2"/>
+    <col min="2" max="2" width="11.44140625" style="1"/>
+    <col min="3" max="9" width="11.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>1</v>
       </c>
@@ -647,13 +650,13 @@
       <c r="F4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="3">
         <v>1</v>
       </c>
@@ -669,13 +672,13 @@
       <c r="F5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="3">
         <v>2</v>
       </c>
@@ -691,13 +694,13 @@
       <c r="F6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="3">
         <v>3</v>
       </c>
@@ -713,222 +716,215 @@
       <c r="F7" s="4">
         <v>5</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="4">
         <v>1</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="4">
         <v>1</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C20" s="4">
         <v>1</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="D25" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="14" t="s">
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B26" s="16" t="s">
         <v>11</v>
       </c>
       <c r="C26" s="4">
         <v>1</v>
       </c>
-      <c r="D26" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="13"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="14"/>
+      <c r="D26" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="15"/>
+      <c r="I26" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B27" s="16"/>
       <c r="C27" s="4">
         <v>2</v>
       </c>
-      <c r="D27" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="14"/>
+      <c r="D27" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B28" s="16"/>
       <c r="C28" s="4">
         <v>3</v>
       </c>
-      <c r="D28" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="14"/>
+      <c r="D28" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B29" s="16"/>
       <c r="C29" s="4">
         <v>4</v>
       </c>
-      <c r="D29" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="14"/>
+      <c r="D29" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B30" s="16"/>
       <c r="C30" s="4">
         <v>5</v>
       </c>
-      <c r="D30" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="14"/>
+      <c r="D30" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B31" s="16"/>
       <c r="C31" s="4">
         <v>6</v>
       </c>
-      <c r="D31" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="14"/>
+      <c r="D31" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B32" s="16"/>
       <c r="C32" s="4">
         <v>7</v>
       </c>
-      <c r="D32" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="14"/>
+      <c r="D32" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B33" s="16"/>
       <c r="C33" s="4">
         <v>8</v>
       </c>
-      <c r="D33" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
+      <c r="D33" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D26:G33">
-    <sortCondition ref="D26:D33"/>
+    <sortCondition descending="1" ref="D26:D33"/>
   </sortState>
   <mergeCells count="19">
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D14:F14"/>
     <mergeCell ref="D31:G31"/>
     <mergeCell ref="D32:G32"/>
     <mergeCell ref="D33:G33"/>
@@ -938,6 +934,16 @@
     <mergeCell ref="D28:G28"/>
     <mergeCell ref="D29:G29"/>
     <mergeCell ref="D30:G30"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="D19:F19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
